--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyamgarrg21/Documents/Priyam/NCSU/Curriculum/CSC 591 (022) - IOT/Project/IoT_HW2_Group11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{160A632A-18EF-AF45-A0A4-4572D27D4B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC89A3-B21D-414E-AD11-2BF141723A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,7 +123,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -185,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -472,11 +472,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -501,7 +576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -527,6 +601,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -563,7 +638,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -847,7 +932,7 @@
   <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -914,7 +999,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
@@ -953,72 +1038,72 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="33">
         <v>74.298000000000002</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="33">
         <v>41.963000000000001</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="33">
         <v>5258.2979999999998</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="33">
         <v>3994.9960000000001</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="33">
         <v>43503.233</v>
       </c>
-      <c r="G4" s="32">
+      <c r="G4" s="33">
         <v>19042.352999999999</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="33">
         <v>64783.273000000001</v>
       </c>
-      <c r="I4" s="32">
+      <c r="I4" s="33">
         <v>5259.0739999999996</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="34">
         <v>1.24</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="34">
         <v>1.00244140625</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="34">
         <v>1.0000247955322199</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="35">
         <v>1.000002616238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="19">
         <v>51.487000000000002</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C5" s="19">
         <v>16.734999999999999</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="19">
         <v>5435.348</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="19">
         <v>1489.14</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="19">
         <v>59570.196000000004</v>
       </c>
-      <c r="G5" s="32">
+      <c r="G5" s="19">
         <v>12754.861999999999</v>
       </c>
-      <c r="H5" s="32">
+      <c r="H5" s="19">
         <v>72921.08</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="19">
         <v>6801.2950000000001</v>
       </c>
       <c r="J5" s="9">
@@ -1030,37 +1115,37 @@
       <c r="L5" s="9">
         <v>1.00002861022949</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="37">
         <v>1.0000030038288099</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="32">
-        <v>241.4</v>
-      </c>
-      <c r="C6" s="32">
-        <v>64.128</v>
-      </c>
-      <c r="D6" s="32">
-        <v>2159.672</v>
-      </c>
-      <c r="E6" s="32">
-        <v>216.98400000000001</v>
-      </c>
-      <c r="F6" s="32">
-        <v>2061.1999999999998</v>
-      </c>
-      <c r="G6" s="32">
-        <v>122.872</v>
-      </c>
-      <c r="H6" s="32">
-        <v>1526.7760000000001</v>
-      </c>
-      <c r="I6" s="32">
-        <v>29.135999999999999</v>
+      <c r="B6" s="19">
+        <v>241.065</v>
+      </c>
+      <c r="C6" s="19">
+        <v>62.540999999999997</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1810.7860000000001</v>
+      </c>
+      <c r="E6" s="19">
+        <v>218.36799999999999</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2097.19</v>
+      </c>
+      <c r="G6" s="19">
+        <v>132.17599999999999</v>
+      </c>
+      <c r="H6" s="19">
+        <v>1165.0609999999999</v>
+      </c>
+      <c r="I6" s="19">
+        <v>15.776999999999999</v>
       </c>
       <c r="J6" s="9">
         <v>1.17</v>
@@ -1071,48 +1156,48 @@
       <c r="L6" s="9">
         <v>1.0000162124633789</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="38">
         <v>1.0000016472609636</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="40">
         <v>121.8450365333768</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="40">
         <v>16.184488253157038</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="40">
         <v>1010.354668792232</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="40">
         <v>44.86062107844576</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="40">
         <v>1041.347280876264</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="40">
         <v>25.321506749560562</v>
       </c>
-      <c r="H7" s="32">
+      <c r="H7" s="40">
         <v>1027.87867946956</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="40">
         <v>51.586594935749282</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="41">
         <v>2.72</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="41">
         <v>3.81640625</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="41">
         <v>3.7891552480000001</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="42">
         <v>3.7859268190000002</v>
       </c>
     </row>
@@ -1164,262 +1249,262 @@
       <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="13">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="13">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="13">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12">
         <v>0.5</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="12">
         <v>0.5</v>
       </c>
-      <c r="G6" s="11"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="12">
         <v>0.5</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="12">
         <v>0.5</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="13">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12">
         <v>0.5</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="12">
         <v>0.5</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="13">
+      <c r="C9" s="10"/>
+      <c r="D9" s="12">
         <v>1</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="13">
+      <c r="C10" s="10"/>
+      <c r="D10" s="12">
         <v>1</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="13">
+      <c r="C11" s="10"/>
+      <c r="D11" s="12">
         <v>1</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>1</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>1</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="30" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="31"/>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>0.2</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>0.2</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>0.2</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>0.2</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15"/>
+      <c r="B17" s="14"/>
     </row>
     <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="18">
         <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="18">
         <v>0.2</v>
       </c>
     </row>

--- a/Results File.xlsx
+++ b/Results File.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyamgarrg21/Documents/Priyam/NCSU/Curriculum/CSC 591 (022) - IOT/Project/IoT_HW2_Group11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/priyamgarrg21/Downloads/IOT Projects/IoT_HW2_Group11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC89A3-B21D-414E-AD11-2BF141723A7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E093A8E-C2E6-094D-A459-7912E3CB78CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>MQTT QoS1</t>
   </si>
@@ -70,51 +69,6 @@
   </si>
   <si>
     <t>Total application layer data transferred from sender to receiver (including header content) per file divided by the file size</t>
-  </si>
-  <si>
-    <t>Tasks</t>
-  </si>
-  <si>
-    <t>Members</t>
-  </si>
-  <si>
-    <t>Topic</t>
-  </si>
-  <si>
-    <t>Sub Tasks</t>
-  </si>
-  <si>
-    <t>Priyam Garg</t>
-  </si>
-  <si>
-    <t>Divyang Doshi</t>
-  </si>
-  <si>
-    <t>Brendan Driscoll</t>
-  </si>
-  <si>
-    <t>Jordan Boerger</t>
-  </si>
-  <si>
-    <t>Vishal Veera Reddy</t>
-  </si>
-  <si>
-    <t>MQTT QOS1</t>
-  </si>
-  <si>
-    <t>MQTT QOS2</t>
-  </si>
-  <si>
-    <t>Report</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Percent Contribution</t>
   </si>
 </sst>
 </file>
@@ -125,7 +79,7 @@
     <numFmt numFmtId="164" formatCode="0.000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,43 +103,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="27">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -267,19 +194,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -433,43 +347,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -563,92 +440,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,44 +787,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="20" t="s">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="27"/>
       <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1038,72 +881,72 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="12">
         <v>74.298000000000002</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="12">
         <v>41.963000000000001</v>
       </c>
-      <c r="D4" s="33">
+      <c r="D4" s="12">
         <v>5258.2979999999998</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="12">
         <v>3994.9960000000001</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="12">
         <v>43503.233</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="12">
         <v>19042.352999999999</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="12">
         <v>64783.273000000001</v>
       </c>
-      <c r="I4" s="33">
+      <c r="I4" s="12">
         <v>5259.0739999999996</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="13">
         <v>1.24</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="13">
         <v>1.00244140625</v>
       </c>
-      <c r="L4" s="34">
+      <c r="L4" s="13">
         <v>1.0000247955322199</v>
       </c>
-      <c r="M4" s="35">
+      <c r="M4" s="14">
         <v>1.000002616238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="10">
         <v>51.487000000000002</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="10">
         <v>16.734999999999999</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="10">
         <v>5435.348</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="10">
         <v>1489.14</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="10">
         <v>59570.196000000004</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="10">
         <v>12754.861999999999</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="10">
         <v>72921.08</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="10">
         <v>6801.2950000000001</v>
       </c>
       <c r="J5" s="9">
@@ -1115,36 +958,36 @@
       <c r="L5" s="9">
         <v>1.00002861022949</v>
       </c>
-      <c r="M5" s="37">
+      <c r="M5" s="16">
         <v>1.0000030038288099</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="10">
         <v>241.065</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="10">
         <v>62.540999999999997</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="10">
         <v>1810.7860000000001</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="10">
         <v>218.36799999999999</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="10">
         <v>2097.19</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="10">
         <v>132.17599999999999</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="10">
         <v>1165.0609999999999</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="10">
         <v>15.776999999999999</v>
       </c>
       <c r="J6" s="9">
@@ -1156,48 +999,48 @@
       <c r="L6" s="9">
         <v>1.0000162124633789</v>
       </c>
-      <c r="M6" s="38">
+      <c r="M6" s="17">
         <v>1.0000016472609636</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="19">
         <v>121.8450365333768</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="19">
         <v>16.184488253157038</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="19">
         <v>1010.354668792232</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="19">
         <v>44.86062107844576</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="19">
         <v>1041.347280876264</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="19">
         <v>25.321506749560562</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="19">
         <v>1027.87867946956</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="19">
         <v>51.586594935749282</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="20">
         <v>2.72</v>
       </c>
-      <c r="K7" s="41">
+      <c r="K7" s="20">
         <v>3.81640625</v>
       </c>
-      <c r="L7" s="41">
+      <c r="L7" s="20">
         <v>3.7891552480000001</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="21">
         <v>3.7859268190000002</v>
       </c>
     </row>
@@ -1213,307 +1056,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E47A86B-6CCB-9A4F-95C5-7F8CBDA9A6BA}">
-  <dimension ref="A1:G22"/>
-  <sheetViews>
-    <sheetView zoomScale="215" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="12">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="12">
-        <v>1</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="31"/>
-      <c r="C15" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="G15" s="12">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="18">
-        <v>0.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A15:B15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>